--- a/Домашнее задание номер 4.xlsx
+++ b/Домашнее задание номер 4.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>Общее Failed</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Подход</t>
-  </si>
-  <si>
-    <t>задача</t>
   </si>
   <si>
     <t xml:space="preserve">Приоритет </t>
@@ -219,6 +216,15 @@
 Поле "Телефон" оставить пустым;
 В поле "Дата рождения" ввести "08.08.1965";
 Нажать кнопку "Найти"</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Paased or Failed</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
@@ -631,12 +637,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -645,24 +669,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -994,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DT61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -1211,43 +1217,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47" t="s">
+      <c r="F6" s="44"/>
+      <c r="G6" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="I6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="J6" s="50"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="44"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="41" t="s">
-        <v>14</v>
-      </c>
       <c r="M6" s="4"/>
-      <c r="N6" s="41" t="s">
-        <v>14</v>
+      <c r="N6" s="48" t="s">
+        <v>13</v>
       </c>
       <c r="O6" s="4"/>
-      <c r="P6" s="41"/>
+      <c r="P6" s="48"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="41"/>
+      <c r="R6" s="48"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="41"/>
+      <c r="T6" s="48"/>
       <c r="U6" s="4"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
@@ -1257,29 +1263,29 @@
     </row>
     <row r="7" spans="1:124" ht="127" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="45"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="41"/>
+      <c r="L7" s="48"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="41"/>
+      <c r="N7" s="48"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="41"/>
+      <c r="P7" s="48"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="41"/>
+      <c r="R7" s="48"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="41"/>
+      <c r="T7" s="48"/>
       <c r="U7" s="4"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
@@ -1293,18 +1299,20 @@
         <v>1</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="E8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="F8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="16"/>
+      <c r="G8" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
       <c r="J8" s="16"/>
@@ -1331,16 +1339,18 @@
         <v>2</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="F9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="H9" s="16"/>
       <c r="I9" s="20"/>
       <c r="J9" s="16"/>
@@ -1369,12 +1379,14 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="H10" s="16"/>
       <c r="I10" s="17"/>
       <c r="J10" s="16"/>
@@ -1403,12 +1415,14 @@
       <c r="C11" s="22"/>
       <c r="D11" s="13"/>
       <c r="E11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="23"/>
+      <c r="G11" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="H11" s="23"/>
       <c r="I11" s="24"/>
       <c r="J11" s="23"/>
@@ -1535,12 +1549,14 @@
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="H12" s="16"/>
       <c r="I12" s="17"/>
       <c r="J12" s="16"/>
@@ -1569,12 +1585,14 @@
       <c r="C13" s="14"/>
       <c r="D13" s="13"/>
       <c r="E13" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="H13" s="16"/>
       <c r="I13" s="17"/>
       <c r="J13" s="16"/>
@@ -1603,12 +1621,14 @@
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="H14" s="16"/>
       <c r="I14" s="17"/>
       <c r="J14" s="16"/>
@@ -1637,12 +1657,14 @@
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="13"/>
+      <c r="G15" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="H15" s="16"/>
       <c r="I15" s="17"/>
       <c r="J15" s="16"/>
@@ -1671,12 +1693,14 @@
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="13"/>
+      <c r="G16" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="H16" s="16"/>
       <c r="I16" s="17"/>
       <c r="J16" s="16"/>
@@ -1704,12 +1728,14 @@
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="H17" s="16"/>
       <c r="I17" s="17"/>
       <c r="J17" s="16"/>
@@ -1738,12 +1764,14 @@
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="H18" s="16"/>
       <c r="I18" s="17"/>
       <c r="J18" s="16"/>
@@ -1772,12 +1800,14 @@
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
       <c r="J19" s="16"/>
@@ -1806,12 +1836,14 @@
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="13"/>
+      <c r="G20" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="H20" s="16"/>
       <c r="I20" s="17"/>
       <c r="J20" s="16"/>
@@ -1840,12 +1872,14 @@
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="H21" s="16"/>
       <c r="I21" s="17"/>
       <c r="J21" s="16"/>
@@ -1874,12 +1908,14 @@
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="13"/>
       <c r="H22" s="16"/>
       <c r="I22" s="17"/>
       <c r="J22" s="16"/>
@@ -2505,7 +2541,7 @@
       <c r="B43" s="38"/>
       <c r="C43" s="38"/>
       <c r="D43" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E43" s="38">
         <f>COUNT(I8:I42)</f>
@@ -2538,7 +2574,7 @@
       <c r="B44" s="38"/>
       <c r="C44" s="38"/>
       <c r="D44" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44" s="38">
         <f>COUNTA(D8:D42)</f>
@@ -2571,7 +2607,7 @@
       <c r="B45" s="38"/>
       <c r="C45" s="38"/>
       <c r="D45" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E45" s="38">
         <f>COUNT(J8:J42)</f>
@@ -2959,12 +2995,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
@@ -2972,6 +3002,12 @@
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="R6:R7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showErrorMessage="1" sqref="AT11 AH11 AF11 Z11 X11 V11 T11 R11 P11 N11 CJ11 CB11 DJ11:DT11 DH11 DF11 DD11 DB11 CZ11 CX11 CV11 CT11 CR11 CP11 CN11 CL11 CH11 CF11 BZ11 BX11 BV11 BT11 BR11 BP11 BN11 BL11 BJ11 BH11 BF11 BD11 BB11 AZ11 AX11 AV11 AR11 AP11 AN11 AL11 AJ11 AD11 AB11">
